--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/uploadfiles/Contact list DP.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/uploadfiles/Contact list DP.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23610"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0D5ABAB-4265-40F2-932D-B16FDA73BC70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E3D701B-02E3-4C98-B333-E6F257EE7866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
